--- a/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stacie.Hardy\Work\Work\Projects\UAS_BodyCondition\Datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stacie.Hardy\Work\Work\GitHub\BodyCondition_DataManagement\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Flight #:</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Target Identifier (letter)</t>
+  </si>
+  <si>
+    <t>Flight Duration (minutes):</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,9 +654,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -681,30 +708,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1093,11 +1100,12 @@
     <col min="6" max="6" width="6.85546875" style="16" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1109,9 +1117,10 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="1"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -1126,10 +1135,11 @@
         <v>6</v>
       </c>
       <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -1144,10 +1154,11 @@
         <v>7</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1165,18 +1176,19 @@
       <c r="I4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="19" t="s">
         <v>9</v>
@@ -1188,15 +1200,16 @@
         <v>11</v>
       </c>
       <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="11" t="s">
         <v>22</v>
@@ -1204,16 +1217,18 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="G7" s="21"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -1227,8 +1242,9 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -1238,8 +1254,11 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
@@ -1256,9 +1275,10 @@
         <v>17</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="21"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
@@ -1271,15 +1291,17 @@
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="21"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="14"/>
       <c r="G12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -1292,8 +1314,9 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -1303,8 +1326,9 @@
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1314,9 +1338,10 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" s="40" customFormat="1" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="12"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="40" customFormat="1" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>1</v>
       </c>
@@ -1326,19 +1351,20 @@
       <c r="C16" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="42" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-    </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" s="25" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>2</v>
       </c>
@@ -1346,15 +1372,16 @@
       <c r="C17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+    </row>
+    <row r="18" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>2</v>
       </c>
@@ -1362,15 +1389,16 @@
       <c r="C18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>2</v>
       </c>
@@ -1378,15 +1406,16 @@
       <c r="C19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
@@ -1394,15 +1423,16 @@
       <c r="C20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
@@ -1410,15 +1440,16 @@
       <c r="C21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-    </row>
-    <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
@@ -1426,15 +1457,16 @@
       <c r="C22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-    </row>
-    <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
@@ -1442,15 +1474,16 @@
       <c r="C23" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-    </row>
-    <row r="24" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+    </row>
+    <row r="24" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
@@ -1458,15 +1491,16 @@
       <c r="C24" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-    </row>
-    <row r="25" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
@@ -1474,15 +1508,16 @@
       <c r="C25" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="50"/>
-    </row>
-    <row r="26" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
@@ -1490,15 +1525,16 @@
       <c r="C26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
-    </row>
-    <row r="27" spans="1:10" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
@@ -1506,15 +1542,16 @@
       <c r="C27" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
-    </row>
-    <row r="28" spans="1:10" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+    </row>
+    <row r="28" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
@@ -1522,42 +1559,43 @@
       <c r="C28" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$16:$16</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$17:$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Flight #:</t>
   </si>
@@ -138,14 +138,25 @@
     <t>Surveyed Altitudes</t>
   </si>
   <si>
-    <t>Notes, including how to identify the seal 
-(if more than one target)</t>
-  </si>
-  <si>
     <t>Target Identifier (letter)</t>
   </si>
   <si>
     <t>Flight Duration (minutes):</t>
+  </si>
+  <si>
+    <t>Wind:</t>
+  </si>
+  <si>
+    <t>Notes
+(including how to identify the seal, if more than one target)</t>
+  </si>
+  <si>
+    <t>Age Class</t>
+  </si>
+  <si>
+    <t>Young-of-Year
+Subadult
+Adult</t>
   </si>
 </sst>
 </file>
@@ -265,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -305,12 +316,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -320,29 +327,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -353,7 +343,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -362,126 +352,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -514,14 +390,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -532,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,7 +499,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,17 +514,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -654,64 +526,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,19 +941,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="16" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="16" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
@@ -1230,23 +1087,22 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="C9" s="33"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
@@ -1254,348 +1110,421 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="G10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="40" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="G11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="14"/>
-      <c r="G12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="20"/>
+      <c r="G12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="14"/>
+      <c r="G13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" s="40" customFormat="1" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" s="38" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="B17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D17" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-    </row>
-    <row r="17" spans="1:11" s="25" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-    </row>
-    <row r="18" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="48"/>
+      <c r="H17" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="1:11" s="25" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="28"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="46" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="28"/>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
+      <c r="D19" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="28"/>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="D20" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
+      <c r="D21" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
     </row>
     <row r="22" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="28"/>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="D22" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="28"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
+      <c r="D23" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
+      <c r="D24" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="28"/>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
+      <c r="D25" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-    </row>
-    <row r="27" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+    </row>
+    <row r="27" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="28"/>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
+      <c r="D27" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
     </row>
     <row r="28" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="28"/>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
+      <c r="D28" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+    </row>
+    <row r="29" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+    </row>
+    <row r="30" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
+  <mergeCells count="42">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Flight #:</t>
   </si>
@@ -41,13 +41,113 @@
     <t>Date (local):</t>
   </si>
   <si>
+    <t>PIC (initials):</t>
+  </si>
+  <si>
+    <t>VO (initials):</t>
+  </si>
+  <si>
+    <t>Flight Type:</t>
+  </si>
+  <si>
+    <t>Data Collection Type:</t>
+  </si>
+  <si>
+    <t>Nadir</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>Equipment Test</t>
+  </si>
+  <si>
+    <t>Seal Survey</t>
+  </si>
+  <si>
+    <t>Flight Start (UTC):</t>
+  </si>
+  <si>
+    <t>Flight End (UTC):</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD HH:MM</t>
+  </si>
+  <si>
+    <t>Aircraft:</t>
+  </si>
+  <si>
+    <t>Battery Identifier:</t>
+  </si>
+  <si>
+    <t>LRF Identifier:</t>
+  </si>
+  <si>
+    <t>Cloud Cover:</t>
+  </si>
+  <si>
+    <t>LRF File Name:</t>
+  </si>
+  <si>
+    <t>Flight Comments:</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Battery % at End:</t>
+  </si>
+  <si>
+    <t>Battery % at Start:</t>
+  </si>
+  <si>
+    <t>Fog       Clear       Mostly Clear       Partly Cloudy       Overcast</t>
+  </si>
+  <si>
+    <t>Bearded
+Ribbon
+Ringed
+Spotted</t>
+  </si>
+  <si>
+    <t>Seal Species</t>
+  </si>
+  <si>
+    <t>Surveyed Altitudes</t>
+  </si>
+  <si>
+    <t>Target Identifier (letter)</t>
+  </si>
+  <si>
+    <t>Flight Duration (minutes):</t>
+  </si>
+  <si>
+    <t>Wind:</t>
+  </si>
+  <si>
+    <t>Notes
+(including how to identify the seal, if more than one target)</t>
+  </si>
+  <si>
+    <t>Age Class</t>
+  </si>
+  <si>
+    <t>Young-of-Year
+Subadult
+Adult</t>
+  </si>
+  <si>
+    <t>Pup
+Young-of-Year
+Subadult
+Adult</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fl</t>
+      <t xml:space="preserve">fl </t>
     </r>
     <r>
       <rPr>
@@ -56,114 +156,90 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>##</t>
+      <t># #</t>
     </r>
   </si>
   <si>
-    <t>PIC (initials):</t>
-  </si>
-  <si>
-    <t>VO (initials):</t>
-  </si>
-  <si>
-    <t>Flight Type:</t>
-  </si>
-  <si>
-    <t>Data Collection Type:</t>
-  </si>
-  <si>
-    <t>Nadir</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>Calibration</t>
-  </si>
-  <si>
-    <t>Equipment Test</t>
-  </si>
-  <si>
-    <t>Seal Survey</t>
-  </si>
-  <si>
-    <t>Flight Start (UTC):</t>
-  </si>
-  <si>
-    <t>Flight End (UTC):</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD HH:MM</t>
-  </si>
-  <si>
-    <t>Aircraft:</t>
-  </si>
-  <si>
-    <t>Battery Identifier:</t>
-  </si>
-  <si>
-    <t>LRF Identifier:</t>
-  </si>
-  <si>
-    <t>Cloud Cover:</t>
-  </si>
-  <si>
-    <t>LRF File Name:</t>
-  </si>
-  <si>
-    <t>Flight Comments:</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>Battery % at End:</t>
-  </si>
-  <si>
-    <t>Battery % at Start:</t>
-  </si>
-  <si>
-    <t>Fog       Clear       Mostly Clear       Partly Cloudy       Overcast</t>
-  </si>
-  <si>
-    <t>Bearded
-Ribbon
-Ringed
-Spotted</t>
-  </si>
-  <si>
-    <t>Seal Species</t>
-  </si>
-  <si>
-    <t>Surveyed Altitudes</t>
-  </si>
-  <si>
-    <t>Target Identifier (letter)</t>
-  </si>
-  <si>
-    <t>Flight Duration (minutes):</t>
-  </si>
-  <si>
-    <t>Wind:</t>
-  </si>
-  <si>
-    <t>Notes
-(including how to identify the seal, if more than one target)</t>
-  </si>
-  <si>
-    <t>Age Class</t>
-  </si>
-  <si>
-    <t>Young-of-Year
-Subadult
-Adult</t>
+    <t>Calm       Light breeze       Moderate breeze       Strong breeze</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Moderate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = small waves; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Strong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>= large waves + white foam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Calm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = mirror or small ripples; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Light</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = wavelets</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -252,6 +328,24 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -276,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -404,13 +498,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,26 +673,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,14 +710,29 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,17 +1106,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="16" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="16" customWidth="1"/>
@@ -983,13 +1148,13 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
@@ -1002,13 +1167,13 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="29" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="21"/>
@@ -1017,7 +1182,7 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="22"/>
@@ -1025,22 +1190,22 @@
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
       <c r="G4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>13</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="22"/>
@@ -1048,20 +1213,20 @@
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>11</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="22"/>
@@ -1069,7 +1234,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -1087,30 +1252,37 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11"/>
+      <c r="C8" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="H8" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="39"/>
+      <c r="H9" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
@@ -1122,25 +1294,25 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="40" t="s">
-        <v>32</v>
+      <c r="K10" s="39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>16</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>17</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
@@ -1148,14 +1320,14 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="20"/>
       <c r="G12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -1171,7 +1343,7 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="32"/>
@@ -1210,285 +1382,287 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" s="38" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-    </row>
-    <row r="18" spans="1:11" s="25" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="49"/>
+      <c r="H17" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-    </row>
-    <row r="19" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="52"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-    </row>
-    <row r="20" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="52"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-    </row>
-    <row r="21" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="52"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+    </row>
+    <row r="21" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-    </row>
-    <row r="22" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="52"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-    </row>
-    <row r="23" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-    </row>
-    <row r="24" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-    </row>
-    <row r="25" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+    </row>
+    <row r="25" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-    </row>
-    <row r="26" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-    </row>
-    <row r="27" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+    </row>
+    <row r="28" spans="1:11" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-    </row>
-    <row r="29" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-    </row>
-    <row r="30" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
+  <mergeCells count="39">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:G27"/>
@@ -1496,35 +1670,11 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Flight #:</t>
   </si>
@@ -51,21 +51,6 @@
   </si>
   <si>
     <t>Data Collection Type:</t>
-  </si>
-  <si>
-    <t>Nadir</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>Calibration</t>
-  </si>
-  <si>
-    <t>Equipment Test</t>
-  </si>
-  <si>
-    <t>Seal Survey</t>
   </si>
   <si>
     <t>Flight Start (UTC):</t>
@@ -133,11 +118,6 @@
   </si>
   <si>
     <t>Age Class</t>
-  </si>
-  <si>
-    <t>Young-of-Year
-Subadult
-Adult</t>
   </si>
   <si>
     <t>Pup
@@ -160,13 +140,46 @@
     </r>
   </si>
   <si>
-    <t>Calm       Light breeze       Moderate breeze       Strong breeze</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <i/>
-        <sz val="10"/>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Calm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: mirror or small ripples (&lt;3 kts); </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Light</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: wavelets (4-10 kts)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -174,72 +187,54 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <i/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> = small waves; </t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Strong </t>
+      <t xml:space="preserve"> small waves (11-16 kts); </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <u/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>= large waves + white foam</t>
+      <t>Strong</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <i/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Calm</t>
+      <t>: large waves+white foam (&gt;16 kts)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = mirror or small ripples; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Light</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = wavelets</t>
-    </r>
+  </si>
+  <si>
+    <t>Calm       Light breeze        Moderate breeze       Strong breeze</t>
+  </si>
+  <si>
+    <t>Nadir       3D</t>
+  </si>
+  <si>
+    <t>Calibration       Equipment Test       Seal Survey       Scouting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -333,19 +328,24 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -557,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,7 +680,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,50 +710,26 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1117,7 @@
     <col min="4" max="4" width="8.5703125" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="16" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18" style="12" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" style="13" customWidth="1"/>
@@ -1148,7 +1145,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="23"/>
@@ -1167,7 +1164,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1182,7 +1179,7 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="22"/>
@@ -1193,19 +1190,15 @@
         <v>7</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>12</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I4" s="21"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="22"/>
@@ -1216,17 +1209,15 @@
         <v>8</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="22"/>
@@ -1234,7 +1225,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -1252,37 +1243,37 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="H9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
@@ -1295,24 +1286,24 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="G11" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
@@ -1320,14 +1311,14 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="20"/>
       <c r="G12" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -1343,7 +1334,7 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="32"/>
@@ -1386,21 +1377,21 @@
         <v>1</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="48" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="45" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
@@ -1412,18 +1403,18 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
@@ -1431,18 +1422,18 @@
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
@@ -1450,18 +1441,18 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
@@ -1469,18 +1460,18 @@
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
@@ -1488,18 +1479,18 @@
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
@@ -1507,18 +1498,18 @@
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
     </row>
     <row r="24" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
@@ -1526,18 +1517,18 @@
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1545,18 +1536,18 @@
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
@@ -1564,18 +1555,18 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
@@ -1583,18 +1574,18 @@
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" spans="1:11" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
@@ -1602,18 +1593,18 @@
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="58"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="1:11" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
@@ -1621,39 +1612,33 @@
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="58"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
@@ -1663,18 +1648,24 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:K20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_DysonCruise.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$17:$17</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$18:$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Flight #:</t>
   </si>
@@ -92,19 +92,10 @@
     <t>Fog       Clear       Mostly Clear       Partly Cloudy       Overcast</t>
   </si>
   <si>
-    <t>Bearded
-Ribbon
-Ringed
-Spotted</t>
-  </si>
-  <si>
     <t>Seal Species</t>
   </si>
   <si>
     <t>Surveyed Altitudes</t>
-  </si>
-  <si>
-    <t>Target Identifier (letter)</t>
   </si>
   <si>
     <t>Flight Duration (minutes):</t>
@@ -227,7 +218,20 @@
     <t>Nadir       3D</t>
   </si>
   <si>
-    <t>Calibration       Equipment Test       Seal Survey       Scouting</t>
+    <t>Bearded
+Ribbon
+Ringed
+Spotted
+Harbor</t>
+  </si>
+  <si>
+    <t>Calibration/Equipment Test       Field Data Collection       Scouting</t>
+  </si>
+  <si>
+    <t>Target Identifier*</t>
+  </si>
+  <si>
+    <t>***Double-check that the UAS is set to collect in UTC before any data are collected***</t>
   </si>
 </sst>
 </file>
@@ -370,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -443,21 +447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -557,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,61 +663,58 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1150,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1190,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1209,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -1243,19 +1229,19 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="H8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -1268,12 +1254,12 @@
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
+      <c r="H9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
@@ -1286,7 +1272,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,313 +1345,284 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" s="38" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" s="38" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="41" t="s">
+      <c r="B18" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-    </row>
-    <row r="18" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="57"/>
+      <c r="H18" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
+    </row>
+    <row r="19" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="28"/>
-      <c r="C20" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="1:11" s="25" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-    </row>
-    <row r="22" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+    </row>
+    <row r="22" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="28"/>
-      <c r="C22" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-    </row>
-    <row r="23" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="28"/>
-      <c r="C23" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-    </row>
-    <row r="24" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+    </row>
+    <row r="24" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-    </row>
-    <row r="25" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="28"/>
-      <c r="C25" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-    </row>
-    <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-    </row>
-    <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+    </row>
+    <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="28"/>
-      <c r="C27" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-    </row>
-    <row r="28" spans="1:11" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+    </row>
+    <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="28"/>
-      <c r="C28" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-    </row>
-    <row r="29" spans="1:11" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
+      <c r="C28" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
+  <mergeCells count="33">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:K28"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1673,8 +1630,10 @@
     <oddHeader xml:space="preserve">&amp;L&amp;"Arial,Bold"UAS Body Condition: 2022 Dyson Cruise
 &amp;CFlight #___     &amp;RPage ___ of ___   </oddHeader>
     <oddFooter>&amp;CIF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</oddFooter>
-    <firstHeader>&amp;RPage 1 of __</firstHeader>
-    <firstFooter>&amp;CIF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</firstFooter>
+    <firstHeader>&amp;L*Target Identifier = &amp;"Arial,Bold"SPENO&amp;"Arial,Regular" (if captured) -or- &amp;"Arial,Bold"DY22-05_YYYYMMDD_fl##_[letter]&amp;"Arial,Regular" (single letter in alphabetical order, if not captured)&amp;RPage 1 of __</firstHeader>
+    <firstFooter>&amp;L
+&amp;C
+IF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</firstFooter>
   </headerFooter>
 </worksheet>
 </file>